--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G210" s="2" t="b">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14594,106 +14594,106 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>25</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>0</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>25</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" t="b">
-        <v>1</v>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K339" t="b">
-        <v>1</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="G339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J339" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B340" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="2" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" t="inlineStr">
+      <c r="D340" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" t="b">
-        <v>1</v>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K340" t="b">
-        <v>1</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F340" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G340" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" t="n">
         <v>35</v>
       </c>
-      <c r="B391" s="2" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" s="2" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" s="2" t="n">
+      <c r="D391" t="n">
         <v>4</v>
       </c>
-      <c r="E391" s="2" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" t="n">
         <v>35</v>
       </c>
-      <c r="B392" s="2" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" s="2" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" s="2" t="n">
+      <c r="D392" t="n">
         <v>5</v>
       </c>
-      <c r="E392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L392" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" t="n">
         <v>35</v>
       </c>
-      <c r="B393" s="2" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" s="2" t="inlineStr">
+      <c r="C393" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" s="2" t="n">
+      <c r="D393" t="n">
         <v>6</v>
       </c>
-      <c r="E393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L393" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" t="n">
         <v>35</v>
       </c>
-      <c r="B394" s="2" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" s="2" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" s="2" t="n">
+      <c r="D394" t="n">
         <v>7</v>
       </c>
-      <c r="E394" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" t="n">
         <v>35</v>
       </c>
-      <c r="B395" s="2" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" s="2" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" s="2" t="n">
+      <c r="D395" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="2" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L395" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K395" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
+      <c r="F496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G210" s="2" t="b">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14594,106 +14594,106 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D274" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" t="inlineStr">
+      <c r="D274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" t="n">
         <v>30</v>
       </c>
-      <c r="B339" s="2" t="inlineStr">
+      <c r="B339" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" s="2" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" s="2" t="n">
+      <c r="D339" t="n">
         <v>0</v>
       </c>
-      <c r="E339" s="2" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" s="2" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L339" s="2" t="inlineStr">
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" t="n">
         <v>30</v>
       </c>
-      <c r="B340" s="2" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" s="2" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="2" t="inlineStr">
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G340" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L340" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K340" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B391" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C391" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="E391" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K391" t="b">
-        <v>1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K391" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B392" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C392" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K392" t="b">
-        <v>1</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K392" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B393" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C393" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K393" t="b">
-        <v>1</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K393" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G394" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B395" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C395" s="2" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E395" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G395" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K395" t="b">
-        <v>1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F395" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K395" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
+      <c r="F496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
